--- a/EQUIPO 2/FASE 1/EVIDENCIAS GRUPALES/PLANILLA DE EVALUACIÓN FASE 1.xlsx
+++ b/EQUIPO 2/FASE 1/EVIDENCIAS GRUPALES/PLANILLA DE EVALUACIÓN FASE 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jemor\Documents\GitHub\PPY4614-006V\EQUIPO 2\FASE 1\EVIDENCIAS GRUPALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DEEAA8-8899-4B58-8DDE-077DF0A6C6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E63CF1-7A12-43EB-9D1B-29E3619A188D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="98">
   <si>
     <t>INTEGRANTES</t>
   </si>
@@ -380,7 +380,35 @@
     <t>Muy Relevante</t>
   </si>
   <si>
-    <t xml:space="preserve">Ana Gonzalez Rojas </t>
+    <r>
+      <t>Juan Araneda Urzúa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedro Guzmán </t>
+  </si>
+  <si>
+    <r>
+      <t>Ana González Rojas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -910,7 +938,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -993,9 +1021,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1047,9 +1072,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1058,15 +1080,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1445,7 +1470,7 @@
   <dimension ref="A2:K929"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -1469,7 +1494,7 @@
       <c r="D2" s="2">
         <v>0.25</v>
       </c>
-      <c r="E2" s="63">
+      <c r="E2" s="62">
         <v>1</v>
       </c>
     </row>
@@ -1483,13 +1508,13 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="50"/>
+      <c r="E3" s="49"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="3" t="s">
         <v>95</v>
       </c>
       <c r="C4" s="6">
@@ -1500,7 +1525,7 @@
         <f>$C$35</f>
         <v>7</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="42">
         <f>C4*C$2+D4*D$2</f>
         <v>7</v>
       </c>
@@ -1510,7 +1535,9 @@
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="C5" s="6">
         <f>EVALUACION1!$C$24</f>
         <v>7</v>
@@ -1519,7 +1546,7 @@
         <f>C47</f>
         <v>7</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="42">
         <f t="shared" ref="E5:E6" si="0">C5*C$2+D5*D$2</f>
         <v>7</v>
       </c>
@@ -1529,7 +1556,9 @@
       <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="C6" s="6">
         <f>EVALUACION1!$C$24</f>
         <v>7</v>
@@ -1538,29 +1567,29 @@
         <f>C58</f>
         <v>7</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="42">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="18" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="63" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="14"/>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
       <c r="K11" s="59"/>
     </row>
     <row r="12" spans="1:11" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -1568,31 +1597,31 @@
       <c r="B12" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="58" t="s">
+      <c r="C12" s="49"/>
+      <c r="D12" s="57" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="59"/>
-      <c r="F12" s="58" t="s">
+      <c r="F12" s="57" t="s">
         <v>8</v>
       </c>
       <c r="G12" s="59"/>
-      <c r="H12" s="58" t="s">
+      <c r="H12" s="57" t="s">
         <v>9</v>
       </c>
       <c r="I12" s="59"/>
-      <c r="J12" s="58" t="s">
+      <c r="J12" s="57" t="s">
         <v>10</v>
       </c>
       <c r="K12" s="59"/>
     </row>
     <row r="13" spans="1:11" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="65"/>
-      <c r="B13" s="35" t="str">
+      <c r="A13" s="64"/>
+      <c r="B13" s="34" t="str">
         <f>RUBRICA!A5</f>
         <v>1. Describe brevemente en qué consiste el Proyecto APT, justificando su relevancia para el campo laboral de su carrera.</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="16" t="str">
@@ -1629,12 +1658,12 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="26.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="65"/>
-      <c r="B14" s="35" t="str">
+      <c r="A14" s="64"/>
+      <c r="B14" s="34" t="str">
         <f>RUBRICA!A6</f>
         <v>2. Relaciona el Proyecto APT con las competencias del perfil de egreso de su Plan de Estudio.</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="16" t="str">
@@ -1671,12 +1700,12 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="65"/>
-      <c r="B15" s="35" t="str">
+      <c r="A15" s="64"/>
+      <c r="B15" s="34" t="str">
         <f>RUBRICA!A8</f>
         <v xml:space="preserve">4.  Argumenta por qué el proyecto es factible de realizarse en el marco de la asignatura. </v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="16" t="str">
@@ -1713,12 +1742,12 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="14.4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="65"/>
-      <c r="B16" s="35" t="str">
+      <c r="A16" s="64"/>
+      <c r="B16" s="34" t="str">
         <f>RUBRICA!A9</f>
         <v xml:space="preserve">5. Formula objetivos claros, concisos y coherentes con la disciplina y la situación a abordar. </v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="16" t="str">
@@ -1755,12 +1784,12 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="65"/>
-      <c r="B17" s="35" t="str">
+      <c r="A17" s="64"/>
+      <c r="B17" s="34" t="str">
         <f>RUBRICA!A10</f>
         <v>6. Propone una metodología de trabajo que permite alcanzar los objetivos propuestos y es pertinente con los requerimientos disciplinares.</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="16" t="str">
@@ -1797,12 +1826,12 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="65"/>
-      <c r="B18" s="35" t="str">
+      <c r="A18" s="64"/>
+      <c r="B18" s="34" t="str">
         <f>RUBRICA!A11</f>
         <v xml:space="preserve">7. Establece un plan de trabajo para su proyecto APT considerando los recursos, duración, facilitadores y obstaculizadores en el desarrollo de las actividades. </v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="16" t="str">
@@ -1839,12 +1868,12 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="65"/>
-      <c r="B19" s="35" t="str">
+      <c r="A19" s="64"/>
+      <c r="B19" s="34" t="str">
         <f>RUBRICA!A12</f>
         <v>8. Determina evidencias, justificando cómo estas dan cuenta del logro de las actividades del Proyecto APT.</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="16" t="str">
@@ -1881,12 +1910,12 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="24" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="65"/>
-      <c r="B20" s="35" t="str">
+      <c r="A20" s="64"/>
+      <c r="B20" s="34" t="str">
         <f>RUBRICA!A13</f>
         <v xml:space="preserve">9. Utiliza reglas de redacción, ortografía (literal, puntual, acentual) y las normas para citas y referencias. </v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="16" t="str">
@@ -1923,12 +1952,12 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="22.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="65"/>
-      <c r="B21" s="35" t="str">
+      <c r="A21" s="64"/>
+      <c r="B21" s="34" t="str">
         <f>RUBRICA!A14</f>
         <v>10. Cumple completando el contenido del informe de presentación del proyecto de acuerdo con la plantilla entregada.</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="16" t="str">
@@ -1965,13 +1994,13 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65"/>
-      <c r="B22" s="35" t="str">
+      <c r="A22" s="64"/>
+      <c r="B22" s="34" t="str">
         <f>RUBRICA!A16</f>
         <v>12. Desarrolla un plan de trabajo que permita del logro de los objetivos propuestos del proyecto de 
 acuerdo a los tiempos para su desarrollo</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="16" t="str">
@@ -2009,10 +2038,10 @@
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A23" s="61"/>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="36">
         <f>E23+G23+I23+K23</f>
         <v>70</v>
       </c>
@@ -2038,8 +2067,8 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="50"/>
-      <c r="B24" s="36" t="s">
+      <c r="A24" s="49"/>
+      <c r="B24" s="35" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="20">
@@ -2053,52 +2082,52 @@
       <c r="A27" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="52" t="str">
+      <c r="C27" s="50" t="str">
         <f>$B$4</f>
-        <v xml:space="preserve">Ana Gonzalez Rojas </v>
-      </c>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="54"/>
+        <v>Juan Araneda Urzúa </v>
+      </c>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="52"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="61"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="57"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="55"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="61"/>
       <c r="B29" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="51" t="s">
+      <c r="C29" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="58" t="s">
+      <c r="D29" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
       <c r="K29" s="59"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2106,31 +2135,31 @@
       <c r="B30" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="58" t="s">
+      <c r="C30" s="49"/>
+      <c r="D30" s="57" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="59"/>
-      <c r="F30" s="58" t="s">
+      <c r="F30" s="57" t="s">
         <v>8</v>
       </c>
       <c r="G30" s="59"/>
-      <c r="H30" s="58" t="s">
+      <c r="H30" s="57" t="s">
         <v>16</v>
       </c>
       <c r="I30" s="59"/>
-      <c r="J30" s="58" t="s">
+      <c r="J30" s="57" t="s">
         <v>10</v>
       </c>
       <c r="K30" s="59"/>
     </row>
     <row r="31" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="61"/>
-      <c r="B31" s="35" t="str">
+      <c r="B31" s="34" t="str">
         <f>RUBRICA!A7</f>
         <v>3. Relaciona el Proyecto APT con sus intereses profesionales. *</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="16" t="str">
@@ -2168,11 +2197,11 @@
     </row>
     <row r="32" spans="1:11" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="61"/>
-      <c r="B32" s="35" t="str">
+      <c r="B32" s="34" t="str">
         <f>RUBRICA!A15</f>
         <v>11. Expone el tema utilizando un lenguaje técnico disciplinar al presentar la propuesta y responde evidenciando un manejo de la información. *</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="16" t="str">
@@ -2210,11 +2239,11 @@
     </row>
     <row r="33" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="61"/>
-      <c r="B33" s="35" t="str">
+      <c r="B33" s="34" t="str">
         <f>RUBRICA!A17</f>
         <v>13. Colaboración y trabajo en equipo *</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="16" t="str">
@@ -2281,7 +2310,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="50"/>
+      <c r="A35" s="49"/>
       <c r="B35" s="17" t="s">
         <v>12</v>
       </c>
@@ -2303,52 +2332,52 @@
       <c r="A39" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="49" t="s">
+      <c r="B39" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="52">
+      <c r="C39" s="50" t="str">
         <f>B5</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="54"/>
+        <v xml:space="preserve">Pedro Guzmán </v>
+      </c>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="52"/>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="61"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="56"/>
-      <c r="K40" s="57"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="55"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="61"/>
       <c r="B41" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="51" t="s">
+      <c r="C41" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="58" t="s">
+      <c r="D41" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
       <c r="K41" s="59"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2356,31 +2385,31 @@
       <c r="B42" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="50"/>
-      <c r="D42" s="58" t="s">
+      <c r="C42" s="49"/>
+      <c r="D42" s="57" t="s">
         <v>7</v>
       </c>
       <c r="E42" s="59"/>
-      <c r="F42" s="58" t="s">
+      <c r="F42" s="57" t="s">
         <v>8</v>
       </c>
       <c r="G42" s="59"/>
-      <c r="H42" s="58" t="s">
+      <c r="H42" s="57" t="s">
         <v>16</v>
       </c>
       <c r="I42" s="59"/>
-      <c r="J42" s="58" t="s">
+      <c r="J42" s="57" t="s">
         <v>10</v>
       </c>
       <c r="K42" s="59"/>
     </row>
     <row r="43" spans="1:11" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="61"/>
-      <c r="B43" s="35" t="str">
+      <c r="B43" s="34" t="str">
         <f>RUBRICA!A7</f>
         <v>3. Relaciona el Proyecto APT con sus intereses profesionales. *</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D43" s="16" t="str">
@@ -2418,11 +2447,11 @@
     </row>
     <row r="44" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A44" s="61"/>
-      <c r="B44" s="35" t="str">
+      <c r="B44" s="34" t="str">
         <f>RUBRICA!A15</f>
         <v>11. Expone el tema utilizando un lenguaje técnico disciplinar al presentar la propuesta y responde evidenciando un manejo de la información. *</v>
       </c>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D44" s="16" t="str">
@@ -2460,11 +2489,11 @@
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="61"/>
-      <c r="B45" s="35" t="str">
+      <c r="B45" s="34" t="str">
         <f>RUBRICA!A17</f>
         <v>13. Colaboración y trabajo en equipo *</v>
       </c>
-      <c r="C45" s="33" t="s">
+      <c r="C45" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="16" t="str">
@@ -2531,7 +2560,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="50"/>
+      <c r="A47" s="49"/>
       <c r="B47" s="17" t="s">
         <v>12</v>
       </c>
@@ -2552,52 +2581,52 @@
       <c r="A50" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B50" s="49" t="s">
+      <c r="B50" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="52">
+      <c r="C50" s="50" t="str">
         <f>B6</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="54"/>
+        <v>Ana González Rojas </v>
+      </c>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="52"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="61"/>
-      <c r="B51" s="50"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="56"/>
-      <c r="K51" s="57"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="55"/>
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="61"/>
       <c r="B52" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="51" t="s">
+      <c r="C52" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D52" s="58" t="s">
+      <c r="D52" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="E52" s="62"/>
-      <c r="F52" s="62"/>
-      <c r="G52" s="62"/>
-      <c r="H52" s="62"/>
-      <c r="I52" s="62"/>
-      <c r="J52" s="62"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="58"/>
+      <c r="J52" s="58"/>
       <c r="K52" s="59"/>
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2605,31 +2634,31 @@
       <c r="B53" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="50"/>
-      <c r="D53" s="58" t="s">
+      <c r="C53" s="49"/>
+      <c r="D53" s="57" t="s">
         <v>7</v>
       </c>
       <c r="E53" s="59"/>
-      <c r="F53" s="58" t="s">
+      <c r="F53" s="57" t="s">
         <v>8</v>
       </c>
       <c r="G53" s="59"/>
-      <c r="H53" s="58" t="s">
+      <c r="H53" s="57" t="s">
         <v>16</v>
       </c>
       <c r="I53" s="59"/>
-      <c r="J53" s="58" t="s">
+      <c r="J53" s="57" t="s">
         <v>10</v>
       </c>
       <c r="K53" s="59"/>
     </row>
     <row r="54" spans="1:11" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="61"/>
-      <c r="B54" s="35" t="str">
+      <c r="B54" s="34" t="str">
         <f>RUBRICA!A7</f>
         <v>3. Relaciona el Proyecto APT con sus intereses profesionales. *</v>
       </c>
-      <c r="C54" s="33" t="s">
+      <c r="C54" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D54" s="16" t="str">
@@ -2667,11 +2696,11 @@
     </row>
     <row r="55" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A55" s="61"/>
-      <c r="B55" s="35" t="str">
+      <c r="B55" s="34" t="str">
         <f>RUBRICA!A15</f>
         <v>11. Expone el tema utilizando un lenguaje técnico disciplinar al presentar la propuesta y responde evidenciando un manejo de la información. *</v>
       </c>
-      <c r="C55" s="33" t="s">
+      <c r="C55" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D55" s="16" t="str">
@@ -2709,11 +2738,11 @@
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="61"/>
-      <c r="B56" s="35" t="str">
+      <c r="B56" s="34" t="str">
         <f>RUBRICA!A17</f>
         <v>13. Colaboración y trabajo en equipo *</v>
       </c>
-      <c r="C56" s="33" t="s">
+      <c r="C56" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="16" t="str">
@@ -2792,7 +2821,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="50"/>
+      <c r="A58" s="49"/>
       <c r="B58" s="17" t="s">
         <v>12</v>
       </c>
@@ -3677,14 +3706,17 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:K40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:K41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C50:K51"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="D52:K52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
     <mergeCell ref="A39:A47"/>
     <mergeCell ref="A27:A35"/>
     <mergeCell ref="E2:E3"/>
@@ -3701,17 +3733,14 @@
     <mergeCell ref="D29:K29"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="D52:K52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C50:K51"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:K40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:K41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:E6">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
@@ -3763,25 +3792,25 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="69" t="s">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="68" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="70"/>
-      <c r="B3" s="75" t="s">
+      <c r="A3" s="69"/>
+      <c r="B3" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="74" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="25" t="s">
@@ -3790,34 +3819,34 @@
       <c r="E3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="70"/>
+      <c r="F3" s="69"/>
     </row>
     <row r="4" spans="1:6" ht="57.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="71"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
       <c r="D4" s="26">
         <v>-0.3</v>
       </c>
       <c r="E4" s="26">
         <v>0</v>
       </c>
-      <c r="F4" s="71"/>
+      <c r="F4" s="70"/>
     </row>
     <row r="5" spans="1:6" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="38" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="28">
@@ -3825,19 +3854,19 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="45" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="30">
@@ -3845,19 +3874,19 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="94.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="41" t="s">
         <v>38</v>
       </c>
       <c r="F7" s="31">
@@ -3865,19 +3894,19 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="41" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="31">
@@ -3885,19 +3914,19 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="65.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="38" t="s">
         <v>48</v>
       </c>
       <c r="F9" s="28">
@@ -3905,19 +3934,19 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="38" t="s">
         <v>53</v>
       </c>
       <c r="F10" s="28">
@@ -3925,19 +3954,19 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="69" x14ac:dyDescent="0.3">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="44" t="s">
         <v>58</v>
       </c>
       <c r="F11" s="30">
@@ -3945,79 +3974,79 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="39">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="40">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="69" x14ac:dyDescent="0.3">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="40">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="38" t="s">
         <v>78</v>
       </c>
       <c r="F15" s="28">
@@ -4025,19 +4054,19 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="38" t="s">
         <v>83</v>
       </c>
       <c r="F16" s="28">
@@ -4045,19 +4074,19 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="38" t="s">
         <v>88</v>
       </c>
       <c r="F17" s="28">
@@ -4065,13 +4094,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="68"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="67"/>
       <c r="F18" s="29">
         <v>1</v>
       </c>
@@ -4114,7 +4143,7 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="43">
         <v>1</v>
       </c>
     </row>
@@ -4122,7 +4151,7 @@
       <c r="A3">
         <v>0.5</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="43">
         <v>1</v>
       </c>
     </row>
@@ -4130,7 +4159,7 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="43">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -4138,7 +4167,7 @@
       <c r="A5">
         <v>1.5</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="43">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -4146,7 +4175,7 @@
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="43">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -4154,7 +4183,7 @@
       <c r="A7">
         <v>2.5</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="43">
         <v>1.2</v>
       </c>
     </row>
@@ -4162,7 +4191,7 @@
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" s="44">
+      <c r="B8" s="43">
         <v>1.2</v>
       </c>
     </row>
@@ -4170,7 +4199,7 @@
       <c r="A9">
         <v>3.5</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="43">
         <v>1.3</v>
       </c>
     </row>
@@ -4178,7 +4207,7 @@
       <c r="A10">
         <v>4</v>
       </c>
-      <c r="B10" s="44">
+      <c r="B10" s="43">
         <v>1.3</v>
       </c>
     </row>
@@ -4186,7 +4215,7 @@
       <c r="A11">
         <v>4.5</v>
       </c>
-      <c r="B11" s="44">
+      <c r="B11" s="43">
         <v>1.3</v>
       </c>
     </row>
@@ -4194,7 +4223,7 @@
       <c r="A12">
         <v>5</v>
       </c>
-      <c r="B12" s="44">
+      <c r="B12" s="43">
         <v>1.4</v>
       </c>
     </row>
@@ -4202,7 +4231,7 @@
       <c r="A13">
         <v>5.5</v>
       </c>
-      <c r="B13" s="44">
+      <c r="B13" s="43">
         <v>1.4</v>
       </c>
     </row>
@@ -4210,7 +4239,7 @@
       <c r="A14">
         <v>6</v>
       </c>
-      <c r="B14" s="44">
+      <c r="B14" s="43">
         <v>1.4</v>
       </c>
     </row>
@@ -4218,7 +4247,7 @@
       <c r="A15">
         <v>6.5</v>
       </c>
-      <c r="B15" s="44">
+      <c r="B15" s="43">
         <v>1.5</v>
       </c>
     </row>
@@ -4226,7 +4255,7 @@
       <c r="A16">
         <v>7</v>
       </c>
-      <c r="B16" s="44">
+      <c r="B16" s="43">
         <v>1.5</v>
       </c>
     </row>
@@ -4234,7 +4263,7 @@
       <c r="A17">
         <v>7.5</v>
       </c>
-      <c r="B17" s="44">
+      <c r="B17" s="43">
         <v>1.5</v>
       </c>
     </row>
@@ -4242,7 +4271,7 @@
       <c r="A18">
         <v>8</v>
       </c>
-      <c r="B18" s="44">
+      <c r="B18" s="43">
         <v>1.6</v>
       </c>
     </row>
@@ -4250,7 +4279,7 @@
       <c r="A19">
         <v>8.5</v>
       </c>
-      <c r="B19" s="44">
+      <c r="B19" s="43">
         <v>1.6</v>
       </c>
     </row>
@@ -4258,7 +4287,7 @@
       <c r="A20">
         <v>9</v>
       </c>
-      <c r="B20" s="44">
+      <c r="B20" s="43">
         <v>1.6</v>
       </c>
     </row>
@@ -4266,7 +4295,7 @@
       <c r="A21">
         <v>9.5</v>
       </c>
-      <c r="B21" s="44">
+      <c r="B21" s="43">
         <v>1.7</v>
       </c>
     </row>
@@ -4274,7 +4303,7 @@
       <c r="A22">
         <v>10</v>
       </c>
-      <c r="B22" s="44">
+      <c r="B22" s="43">
         <v>1.7</v>
       </c>
     </row>
@@ -4282,7 +4311,7 @@
       <c r="A23">
         <v>10.5</v>
       </c>
-      <c r="B23" s="44">
+      <c r="B23" s="43">
         <v>1.8</v>
       </c>
     </row>
@@ -4290,7 +4319,7 @@
       <c r="A24">
         <v>11</v>
       </c>
-      <c r="B24" s="44">
+      <c r="B24" s="43">
         <v>1.8</v>
       </c>
     </row>
@@ -4298,7 +4327,7 @@
       <c r="A25">
         <v>11.5</v>
       </c>
-      <c r="B25" s="44">
+      <c r="B25" s="43">
         <v>1.8</v>
       </c>
     </row>
@@ -4306,7 +4335,7 @@
       <c r="A26">
         <v>12</v>
       </c>
-      <c r="B26" s="44">
+      <c r="B26" s="43">
         <v>1.9</v>
       </c>
     </row>
@@ -4314,7 +4343,7 @@
       <c r="A27">
         <v>12.5</v>
       </c>
-      <c r="B27" s="44">
+      <c r="B27" s="43">
         <v>1.9</v>
       </c>
     </row>
@@ -4322,7 +4351,7 @@
       <c r="A28">
         <v>13</v>
       </c>
-      <c r="B28" s="44">
+      <c r="B28" s="43">
         <v>1.9</v>
       </c>
     </row>
@@ -4330,7 +4359,7 @@
       <c r="A29">
         <v>13.5</v>
       </c>
-      <c r="B29" s="44">
+      <c r="B29" s="43">
         <v>2</v>
       </c>
     </row>
@@ -4338,7 +4367,7 @@
       <c r="A30">
         <v>14</v>
       </c>
-      <c r="B30" s="44">
+      <c r="B30" s="43">
         <v>2</v>
       </c>
     </row>
@@ -4346,7 +4375,7 @@
       <c r="A31">
         <v>14.5</v>
       </c>
-      <c r="B31" s="44">
+      <c r="B31" s="43">
         <v>2</v>
       </c>
     </row>
@@ -4354,7 +4383,7 @@
       <c r="A32">
         <v>15</v>
       </c>
-      <c r="B32" s="44">
+      <c r="B32" s="43">
         <v>2.1</v>
       </c>
     </row>
@@ -4362,7 +4391,7 @@
       <c r="A33">
         <v>15.5</v>
       </c>
-      <c r="B33" s="44">
+      <c r="B33" s="43">
         <v>2.1</v>
       </c>
     </row>
@@ -4370,7 +4399,7 @@
       <c r="A34">
         <v>16</v>
       </c>
-      <c r="B34" s="44">
+      <c r="B34" s="43">
         <v>2.1</v>
       </c>
     </row>
@@ -4378,7 +4407,7 @@
       <c r="A35">
         <v>16.5</v>
       </c>
-      <c r="B35" s="44">
+      <c r="B35" s="43">
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -4386,7 +4415,7 @@
       <c r="A36">
         <v>17</v>
       </c>
-      <c r="B36" s="44">
+      <c r="B36" s="43">
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -4394,7 +4423,7 @@
       <c r="A37">
         <v>17.5</v>
       </c>
-      <c r="B37" s="44">
+      <c r="B37" s="43">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -4402,7 +4431,7 @@
       <c r="A38">
         <v>18</v>
       </c>
-      <c r="B38" s="44">
+      <c r="B38" s="43">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -4410,7 +4439,7 @@
       <c r="A39">
         <v>18.5</v>
       </c>
-      <c r="B39" s="44">
+      <c r="B39" s="43">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -4418,7 +4447,7 @@
       <c r="A40">
         <v>19</v>
       </c>
-      <c r="B40" s="44">
+      <c r="B40" s="43">
         <v>2.4</v>
       </c>
     </row>
@@ -4426,7 +4455,7 @@
       <c r="A41">
         <v>19.5</v>
       </c>
-      <c r="B41" s="44">
+      <c r="B41" s="43">
         <v>2.4</v>
       </c>
     </row>
@@ -4434,7 +4463,7 @@
       <c r="A42">
         <v>20</v>
       </c>
-      <c r="B42" s="44">
+      <c r="B42" s="43">
         <v>2.4</v>
       </c>
     </row>
@@ -4442,7 +4471,7 @@
       <c r="A43">
         <v>20.5</v>
       </c>
-      <c r="B43" s="44">
+      <c r="B43" s="43">
         <v>2.5</v>
       </c>
     </row>
@@ -4450,7 +4479,7 @@
       <c r="A44">
         <v>21</v>
       </c>
-      <c r="B44" s="44">
+      <c r="B44" s="43">
         <v>2.5</v>
       </c>
     </row>
@@ -4458,7 +4487,7 @@
       <c r="A45">
         <v>21.5</v>
       </c>
-      <c r="B45" s="44">
+      <c r="B45" s="43">
         <v>2.5</v>
       </c>
     </row>
@@ -4466,7 +4495,7 @@
       <c r="A46">
         <v>22</v>
       </c>
-      <c r="B46" s="44">
+      <c r="B46" s="43">
         <v>2.6</v>
       </c>
     </row>
@@ -4474,7 +4503,7 @@
       <c r="A47">
         <v>22.5</v>
       </c>
-      <c r="B47" s="44">
+      <c r="B47" s="43">
         <v>2.6</v>
       </c>
     </row>
@@ -4482,7 +4511,7 @@
       <c r="A48">
         <v>23</v>
       </c>
-      <c r="B48" s="44">
+      <c r="B48" s="43">
         <v>2.6</v>
       </c>
     </row>
@@ -4490,7 +4519,7 @@
       <c r="A49">
         <v>23.5</v>
       </c>
-      <c r="B49" s="44">
+      <c r="B49" s="43">
         <v>2.7</v>
       </c>
     </row>
@@ -4498,7 +4527,7 @@
       <c r="A50">
         <v>24</v>
       </c>
-      <c r="B50" s="44">
+      <c r="B50" s="43">
         <v>2.7</v>
       </c>
     </row>
@@ -4506,7 +4535,7 @@
       <c r="A51">
         <v>24.5</v>
       </c>
-      <c r="B51" s="44">
+      <c r="B51" s="43">
         <v>2.8</v>
       </c>
     </row>
@@ -4514,7 +4543,7 @@
       <c r="A52">
         <v>25</v>
       </c>
-      <c r="B52" s="44">
+      <c r="B52" s="43">
         <v>2.8</v>
       </c>
     </row>
@@ -4522,7 +4551,7 @@
       <c r="A53">
         <v>25.5</v>
       </c>
-      <c r="B53" s="44">
+      <c r="B53" s="43">
         <v>2.8</v>
       </c>
     </row>
@@ -4530,7 +4559,7 @@
       <c r="A54">
         <v>26</v>
       </c>
-      <c r="B54" s="44">
+      <c r="B54" s="43">
         <v>2.9</v>
       </c>
     </row>
@@ -4538,7 +4567,7 @@
       <c r="A55">
         <v>26.5</v>
       </c>
-      <c r="B55" s="44">
+      <c r="B55" s="43">
         <v>2.9</v>
       </c>
     </row>
@@ -4546,7 +4575,7 @@
       <c r="A56">
         <v>27</v>
       </c>
-      <c r="B56" s="44">
+      <c r="B56" s="43">
         <v>2.9</v>
       </c>
     </row>
@@ -4554,7 +4583,7 @@
       <c r="A57">
         <v>27.5</v>
       </c>
-      <c r="B57" s="44">
+      <c r="B57" s="43">
         <v>3</v>
       </c>
     </row>
@@ -4562,7 +4591,7 @@
       <c r="A58">
         <v>28</v>
       </c>
-      <c r="B58" s="44">
+      <c r="B58" s="43">
         <v>3</v>
       </c>
     </row>
@@ -4570,7 +4599,7 @@
       <c r="A59">
         <v>28.5</v>
       </c>
-      <c r="B59" s="44">
+      <c r="B59" s="43">
         <v>3</v>
       </c>
     </row>
@@ -4578,7 +4607,7 @@
       <c r="A60">
         <v>29</v>
       </c>
-      <c r="B60" s="44">
+      <c r="B60" s="43">
         <v>3.1</v>
       </c>
     </row>
@@ -4586,7 +4615,7 @@
       <c r="A61">
         <v>29.5</v>
       </c>
-      <c r="B61" s="44">
+      <c r="B61" s="43">
         <v>3.1</v>
       </c>
     </row>
@@ -4594,7 +4623,7 @@
       <c r="A62">
         <v>30</v>
       </c>
-      <c r="B62" s="44">
+      <c r="B62" s="43">
         <v>3.1</v>
       </c>
     </row>
@@ -4602,7 +4631,7 @@
       <c r="A63">
         <v>30.5</v>
       </c>
-      <c r="B63" s="44">
+      <c r="B63" s="43">
         <v>3.2</v>
       </c>
     </row>
@@ -4610,7 +4639,7 @@
       <c r="A64">
         <v>31</v>
       </c>
-      <c r="B64" s="44">
+      <c r="B64" s="43">
         <v>3.2</v>
       </c>
     </row>
@@ -4618,7 +4647,7 @@
       <c r="A65">
         <v>31.5</v>
       </c>
-      <c r="B65" s="44">
+      <c r="B65" s="43">
         <v>3.3</v>
       </c>
     </row>
@@ -4626,7 +4655,7 @@
       <c r="A66">
         <v>32</v>
       </c>
-      <c r="B66" s="44">
+      <c r="B66" s="43">
         <v>3.3</v>
       </c>
     </row>
@@ -4634,7 +4663,7 @@
       <c r="A67">
         <v>32.5</v>
       </c>
-      <c r="B67" s="44">
+      <c r="B67" s="43">
         <v>3.3</v>
       </c>
     </row>
@@ -4642,7 +4671,7 @@
       <c r="A68">
         <v>33</v>
       </c>
-      <c r="B68" s="44">
+      <c r="B68" s="43">
         <v>3.4</v>
       </c>
     </row>
@@ -4650,7 +4679,7 @@
       <c r="A69">
         <v>33.5</v>
       </c>
-      <c r="B69" s="44">
+      <c r="B69" s="43">
         <v>3.4</v>
       </c>
     </row>
@@ -4658,7 +4687,7 @@
       <c r="A70">
         <v>34</v>
       </c>
-      <c r="B70" s="44">
+      <c r="B70" s="43">
         <v>3.4</v>
       </c>
     </row>
@@ -4666,7 +4695,7 @@
       <c r="A71">
         <v>34.5</v>
       </c>
-      <c r="B71" s="44">
+      <c r="B71" s="43">
         <v>3.5</v>
       </c>
     </row>
@@ -4674,7 +4703,7 @@
       <c r="A72">
         <v>35</v>
       </c>
-      <c r="B72" s="44">
+      <c r="B72" s="43">
         <v>3.5</v>
       </c>
     </row>
@@ -4682,7 +4711,7 @@
       <c r="A73">
         <v>35.5</v>
       </c>
-      <c r="B73" s="44">
+      <c r="B73" s="43">
         <v>3.5</v>
       </c>
     </row>
@@ -4690,7 +4719,7 @@
       <c r="A74">
         <v>36</v>
       </c>
-      <c r="B74" s="44">
+      <c r="B74" s="43">
         <v>3.6</v>
       </c>
     </row>
@@ -4698,7 +4727,7 @@
       <c r="A75">
         <v>36.5</v>
       </c>
-      <c r="B75" s="44">
+      <c r="B75" s="43">
         <v>3.6</v>
       </c>
     </row>
@@ -4706,7 +4735,7 @@
       <c r="A76">
         <v>37</v>
       </c>
-      <c r="B76" s="44">
+      <c r="B76" s="43">
         <v>3.6</v>
       </c>
     </row>
@@ -4714,7 +4743,7 @@
       <c r="A77">
         <v>37.5</v>
       </c>
-      <c r="B77" s="44">
+      <c r="B77" s="43">
         <v>3.7</v>
       </c>
     </row>
@@ -4722,7 +4751,7 @@
       <c r="A78">
         <v>38</v>
       </c>
-      <c r="B78" s="44">
+      <c r="B78" s="43">
         <v>3.7</v>
       </c>
     </row>
@@ -4730,7 +4759,7 @@
       <c r="A79">
         <v>38.5</v>
       </c>
-      <c r="B79" s="44">
+      <c r="B79" s="43">
         <v>3.8</v>
       </c>
     </row>
@@ -4738,7 +4767,7 @@
       <c r="A80">
         <v>39</v>
       </c>
-      <c r="B80" s="44">
+      <c r="B80" s="43">
         <v>3.8</v>
       </c>
     </row>
@@ -4746,7 +4775,7 @@
       <c r="A81">
         <v>39.5</v>
       </c>
-      <c r="B81" s="44">
+      <c r="B81" s="43">
         <v>3.8</v>
       </c>
     </row>
@@ -4754,7 +4783,7 @@
       <c r="A82">
         <v>40</v>
       </c>
-      <c r="B82" s="44">
+      <c r="B82" s="43">
         <v>3.9</v>
       </c>
     </row>
@@ -4762,7 +4791,7 @@
       <c r="A83">
         <v>40.5</v>
       </c>
-      <c r="B83" s="44">
+      <c r="B83" s="43">
         <v>3.9</v>
       </c>
     </row>
@@ -4770,7 +4799,7 @@
       <c r="A84">
         <v>41</v>
       </c>
-      <c r="B84" s="44">
+      <c r="B84" s="43">
         <v>3.9</v>
       </c>
     </row>
@@ -4778,7 +4807,7 @@
       <c r="A85">
         <v>41.5</v>
       </c>
-      <c r="B85" s="44">
+      <c r="B85" s="43">
         <v>4</v>
       </c>
     </row>
@@ -4786,7 +4815,7 @@
       <c r="A86">
         <v>42</v>
       </c>
-      <c r="B86" s="44">
+      <c r="B86" s="43">
         <v>4</v>
       </c>
     </row>
@@ -4794,7 +4823,7 @@
       <c r="A87">
         <v>42.5</v>
       </c>
-      <c r="B87" s="44">
+      <c r="B87" s="43">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -4802,7 +4831,7 @@
       <c r="A88">
         <v>43</v>
       </c>
-      <c r="B88" s="44">
+      <c r="B88" s="43">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -4810,7 +4839,7 @@
       <c r="A89">
         <v>43.5</v>
       </c>
-      <c r="B89" s="44">
+      <c r="B89" s="43">
         <v>4.2</v>
       </c>
     </row>
@@ -4818,7 +4847,7 @@
       <c r="A90">
         <v>44</v>
       </c>
-      <c r="B90" s="44">
+      <c r="B90" s="43">
         <v>4.2</v>
       </c>
     </row>
@@ -4826,7 +4855,7 @@
       <c r="A91">
         <v>44.5</v>
       </c>
-      <c r="B91" s="44">
+      <c r="B91" s="43">
         <v>4.3</v>
       </c>
     </row>
@@ -4834,7 +4863,7 @@
       <c r="A92">
         <v>45</v>
       </c>
-      <c r="B92" s="44">
+      <c r="B92" s="43">
         <v>4.3</v>
       </c>
     </row>
@@ -4842,7 +4871,7 @@
       <c r="A93">
         <v>45.5</v>
       </c>
-      <c r="B93" s="44">
+      <c r="B93" s="43">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -4850,7 +4879,7 @@
       <c r="A94">
         <v>46</v>
       </c>
-      <c r="B94" s="44">
+      <c r="B94" s="43">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -4858,7 +4887,7 @@
       <c r="A95">
         <v>46.5</v>
       </c>
-      <c r="B95" s="44">
+      <c r="B95" s="43">
         <v>4.5</v>
       </c>
     </row>
@@ -4866,7 +4895,7 @@
       <c r="A96">
         <v>47</v>
       </c>
-      <c r="B96" s="44">
+      <c r="B96" s="43">
         <v>4.5</v>
       </c>
     </row>
@@ -4874,7 +4903,7 @@
       <c r="A97">
         <v>47.5</v>
       </c>
-      <c r="B97" s="44">
+      <c r="B97" s="43">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -4882,7 +4911,7 @@
       <c r="A98">
         <v>48</v>
       </c>
-      <c r="B98" s="44">
+      <c r="B98" s="43">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -4890,7 +4919,7 @@
       <c r="A99">
         <v>48.5</v>
       </c>
-      <c r="B99" s="44">
+      <c r="B99" s="43">
         <v>4.7</v>
       </c>
     </row>
@@ -4898,7 +4927,7 @@
       <c r="A100">
         <v>49</v>
       </c>
-      <c r="B100" s="44">
+      <c r="B100" s="43">
         <v>4.8</v>
       </c>
     </row>
@@ -4906,7 +4935,7 @@
       <c r="A101">
         <v>49.5</v>
       </c>
-      <c r="B101" s="44">
+      <c r="B101" s="43">
         <v>4.8</v>
       </c>
     </row>
@@ -4914,7 +4943,7 @@
       <c r="A102">
         <v>50</v>
       </c>
-      <c r="B102" s="44">
+      <c r="B102" s="43">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -4922,7 +4951,7 @@
       <c r="A103">
         <v>50.5</v>
       </c>
-      <c r="B103" s="44">
+      <c r="B103" s="43">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -4930,7 +4959,7 @@
       <c r="A104">
         <v>51</v>
       </c>
-      <c r="B104" s="44">
+      <c r="B104" s="43">
         <v>5</v>
       </c>
     </row>
@@ -4938,7 +4967,7 @@
       <c r="A105">
         <v>51.5</v>
       </c>
-      <c r="B105" s="44">
+      <c r="B105" s="43">
         <v>5</v>
       </c>
     </row>
@@ -4946,7 +4975,7 @@
       <c r="A106">
         <v>52</v>
       </c>
-      <c r="B106" s="44">
+      <c r="B106" s="43">
         <v>5.0999999999999996</v>
       </c>
     </row>
@@ -4954,7 +4983,7 @@
       <c r="A107">
         <v>52.5</v>
       </c>
-      <c r="B107" s="44">
+      <c r="B107" s="43">
         <v>5.0999999999999996</v>
       </c>
     </row>
@@ -4962,7 +4991,7 @@
       <c r="A108">
         <v>53</v>
       </c>
-      <c r="B108" s="44">
+      <c r="B108" s="43">
         <v>5.2</v>
       </c>
     </row>
@@ -4970,7 +4999,7 @@
       <c r="A109">
         <v>53.5</v>
       </c>
-      <c r="B109" s="44">
+      <c r="B109" s="43">
         <v>5.2</v>
       </c>
     </row>
@@ -4978,7 +5007,7 @@
       <c r="A110">
         <v>54</v>
       </c>
-      <c r="B110" s="44">
+      <c r="B110" s="43">
         <v>5.3</v>
       </c>
     </row>
@@ -4986,7 +5015,7 @@
       <c r="A111">
         <v>54.5</v>
       </c>
-      <c r="B111" s="44">
+      <c r="B111" s="43">
         <v>5.3</v>
       </c>
     </row>
@@ -4994,7 +5023,7 @@
       <c r="A112">
         <v>55</v>
       </c>
-      <c r="B112" s="44">
+      <c r="B112" s="43">
         <v>5.4</v>
       </c>
     </row>
@@ -5002,7 +5031,7 @@
       <c r="A113">
         <v>55.5</v>
       </c>
-      <c r="B113" s="44">
+      <c r="B113" s="43">
         <v>5.4</v>
       </c>
     </row>
@@ -5010,7 +5039,7 @@
       <c r="A114">
         <v>56</v>
       </c>
-      <c r="B114" s="44">
+      <c r="B114" s="43">
         <v>5.5</v>
       </c>
     </row>
@@ -5018,7 +5047,7 @@
       <c r="A115">
         <v>56.5</v>
       </c>
-      <c r="B115" s="44">
+      <c r="B115" s="43">
         <v>5.6</v>
       </c>
     </row>
@@ -5026,7 +5055,7 @@
       <c r="A116">
         <v>57</v>
       </c>
-      <c r="B116" s="44">
+      <c r="B116" s="43">
         <v>5.6</v>
       </c>
     </row>
@@ -5034,7 +5063,7 @@
       <c r="A117">
         <v>57.5</v>
       </c>
-      <c r="B117" s="44">
+      <c r="B117" s="43">
         <v>5.7</v>
       </c>
     </row>
@@ -5042,7 +5071,7 @@
       <c r="A118">
         <v>58</v>
       </c>
-      <c r="B118" s="44">
+      <c r="B118" s="43">
         <v>5.7</v>
       </c>
     </row>
@@ -5050,7 +5079,7 @@
       <c r="A119">
         <v>58.5</v>
       </c>
-      <c r="B119" s="44">
+      <c r="B119" s="43">
         <v>5.8</v>
       </c>
     </row>
@@ -5058,7 +5087,7 @@
       <c r="A120">
         <v>59</v>
       </c>
-      <c r="B120" s="44">
+      <c r="B120" s="43">
         <v>5.8</v>
       </c>
     </row>
@@ -5066,7 +5095,7 @@
       <c r="A121">
         <v>59.5</v>
       </c>
-      <c r="B121" s="44">
+      <c r="B121" s="43">
         <v>5.9</v>
       </c>
     </row>
@@ -5074,7 +5103,7 @@
       <c r="A122">
         <v>60</v>
       </c>
-      <c r="B122" s="44">
+      <c r="B122" s="43">
         <v>5.9</v>
       </c>
     </row>
@@ -5082,7 +5111,7 @@
       <c r="A123">
         <v>60.5</v>
       </c>
-      <c r="B123" s="44">
+      <c r="B123" s="43">
         <v>6</v>
       </c>
     </row>
@@ -5090,7 +5119,7 @@
       <c r="A124">
         <v>61</v>
       </c>
-      <c r="B124" s="44">
+      <c r="B124" s="43">
         <v>6</v>
       </c>
     </row>
@@ -5098,7 +5127,7 @@
       <c r="A125">
         <v>61.5</v>
       </c>
-      <c r="B125" s="44">
+      <c r="B125" s="43">
         <v>6.1</v>
       </c>
     </row>
@@ -5106,7 +5135,7 @@
       <c r="A126">
         <v>62</v>
       </c>
-      <c r="B126" s="44">
+      <c r="B126" s="43">
         <v>6.1</v>
       </c>
     </row>
@@ -5114,7 +5143,7 @@
       <c r="A127">
         <v>62.5</v>
       </c>
-      <c r="B127" s="44">
+      <c r="B127" s="43">
         <v>6.2</v>
       </c>
     </row>
@@ -5122,7 +5151,7 @@
       <c r="A128">
         <v>63</v>
       </c>
-      <c r="B128" s="44">
+      <c r="B128" s="43">
         <v>6.3</v>
       </c>
     </row>
@@ -5130,7 +5159,7 @@
       <c r="A129">
         <v>63.5</v>
       </c>
-      <c r="B129" s="44">
+      <c r="B129" s="43">
         <v>6.3</v>
       </c>
     </row>
@@ -5138,7 +5167,7 @@
       <c r="A130">
         <v>64</v>
       </c>
-      <c r="B130" s="44">
+      <c r="B130" s="43">
         <v>6.4</v>
       </c>
     </row>
@@ -5146,7 +5175,7 @@
       <c r="A131">
         <v>64.5</v>
       </c>
-      <c r="B131" s="44">
+      <c r="B131" s="43">
         <v>6.4</v>
       </c>
     </row>
@@ -5154,7 +5183,7 @@
       <c r="A132">
         <v>65</v>
       </c>
-      <c r="B132" s="44">
+      <c r="B132" s="43">
         <v>6.5</v>
       </c>
     </row>
@@ -5162,7 +5191,7 @@
       <c r="A133">
         <v>65.5</v>
       </c>
-      <c r="B133" s="44">
+      <c r="B133" s="43">
         <v>6.5</v>
       </c>
     </row>
@@ -5170,7 +5199,7 @@
       <c r="A134">
         <v>66</v>
       </c>
-      <c r="B134" s="44">
+      <c r="B134" s="43">
         <v>6.6</v>
       </c>
     </row>
@@ -5178,7 +5207,7 @@
       <c r="A135">
         <v>66.5</v>
       </c>
-      <c r="B135" s="44">
+      <c r="B135" s="43">
         <v>6.6</v>
       </c>
     </row>
@@ -5186,7 +5215,7 @@
       <c r="A136">
         <v>67</v>
       </c>
-      <c r="B136" s="44">
+      <c r="B136" s="43">
         <v>6.7</v>
       </c>
     </row>
@@ -5194,7 +5223,7 @@
       <c r="A137">
         <v>67.5</v>
       </c>
-      <c r="B137" s="44">
+      <c r="B137" s="43">
         <v>6.7</v>
       </c>
     </row>
@@ -5202,7 +5231,7 @@
       <c r="A138">
         <v>68</v>
       </c>
-      <c r="B138" s="44">
+      <c r="B138" s="43">
         <v>6.8</v>
       </c>
     </row>
@@ -5210,7 +5239,7 @@
       <c r="A139">
         <v>68.5</v>
       </c>
-      <c r="B139" s="44">
+      <c r="B139" s="43">
         <v>6.8</v>
       </c>
     </row>
@@ -5218,7 +5247,7 @@
       <c r="A140">
         <v>69</v>
       </c>
-      <c r="B140" s="44">
+      <c r="B140" s="43">
         <v>6.9</v>
       </c>
     </row>
@@ -5226,7 +5255,7 @@
       <c r="A141">
         <v>69.5</v>
       </c>
-      <c r="B141" s="44">
+      <c r="B141" s="43">
         <v>6.9</v>
       </c>
     </row>
@@ -5234,7 +5263,7 @@
       <c r="A142">
         <v>70</v>
       </c>
-      <c r="B142" s="44">
+      <c r="B142" s="43">
         <v>7</v>
       </c>
     </row>
@@ -7522,7 +7551,7 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="43">
         <v>1</v>
       </c>
     </row>
@@ -7530,7 +7559,7 @@
       <c r="A3">
         <v>0.5</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="43">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -7538,7 +7567,7 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="43">
         <v>1.2</v>
       </c>
     </row>
@@ -7546,7 +7575,7 @@
       <c r="A5">
         <v>1.5</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="43">
         <v>1.3</v>
       </c>
     </row>
@@ -7554,7 +7583,7 @@
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="43">
         <v>1.3</v>
       </c>
     </row>
@@ -7562,7 +7591,7 @@
       <c r="A7">
         <v>2.5</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="43">
         <v>1.4</v>
       </c>
     </row>
@@ -7570,7 +7599,7 @@
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" s="44">
+      <c r="B8" s="43">
         <v>1.5</v>
       </c>
     </row>
@@ -7578,7 +7607,7 @@
       <c r="A9">
         <v>3.5</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="43">
         <v>1.6</v>
       </c>
     </row>
@@ -7586,7 +7615,7 @@
       <c r="A10">
         <v>4</v>
       </c>
-      <c r="B10" s="44">
+      <c r="B10" s="43">
         <v>1.7</v>
       </c>
     </row>
@@ -7594,7 +7623,7 @@
       <c r="A11">
         <v>4.5</v>
       </c>
-      <c r="B11" s="44">
+      <c r="B11" s="43">
         <v>1.8</v>
       </c>
     </row>
@@ -7602,7 +7631,7 @@
       <c r="A12">
         <v>5</v>
       </c>
-      <c r="B12" s="44">
+      <c r="B12" s="43">
         <v>1.8</v>
       </c>
     </row>
@@ -7610,7 +7639,7 @@
       <c r="A13">
         <v>5.5</v>
       </c>
-      <c r="B13" s="44">
+      <c r="B13" s="43">
         <v>1.9</v>
       </c>
     </row>
@@ -7618,7 +7647,7 @@
       <c r="A14">
         <v>6</v>
       </c>
-      <c r="B14" s="44">
+      <c r="B14" s="43">
         <v>2</v>
       </c>
     </row>
@@ -7626,7 +7655,7 @@
       <c r="A15">
         <v>6.5</v>
       </c>
-      <c r="B15" s="44">
+      <c r="B15" s="43">
         <v>2.1</v>
       </c>
     </row>
@@ -7634,7 +7663,7 @@
       <c r="A16">
         <v>7</v>
       </c>
-      <c r="B16" s="44">
+      <c r="B16" s="43">
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -7642,7 +7671,7 @@
       <c r="A17">
         <v>7.5</v>
       </c>
-      <c r="B17" s="44">
+      <c r="B17" s="43">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -7650,7 +7679,7 @@
       <c r="A18">
         <v>8</v>
       </c>
-      <c r="B18" s="44">
+      <c r="B18" s="43">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -7658,7 +7687,7 @@
       <c r="A19">
         <v>8.5</v>
       </c>
-      <c r="B19" s="44">
+      <c r="B19" s="43">
         <v>2.4</v>
       </c>
     </row>
@@ -7666,7 +7695,7 @@
       <c r="A20">
         <v>9</v>
       </c>
-      <c r="B20" s="44">
+      <c r="B20" s="43">
         <v>2.5</v>
       </c>
     </row>
@@ -7674,7 +7703,7 @@
       <c r="A21">
         <v>9.5</v>
       </c>
-      <c r="B21" s="44">
+      <c r="B21" s="43">
         <v>2.6</v>
       </c>
     </row>
@@ -7682,7 +7711,7 @@
       <c r="A22">
         <v>10</v>
       </c>
-      <c r="B22" s="44">
+      <c r="B22" s="43">
         <v>2.7</v>
       </c>
     </row>
@@ -7690,7 +7719,7 @@
       <c r="A23">
         <v>10.5</v>
       </c>
-      <c r="B23" s="44">
+      <c r="B23" s="43">
         <v>2.8</v>
       </c>
     </row>
@@ -7698,7 +7727,7 @@
       <c r="A24">
         <v>11</v>
       </c>
-      <c r="B24" s="44">
+      <c r="B24" s="43">
         <v>2.8</v>
       </c>
     </row>
@@ -7706,7 +7735,7 @@
       <c r="A25">
         <v>11.5</v>
       </c>
-      <c r="B25" s="44">
+      <c r="B25" s="43">
         <v>2.9</v>
       </c>
     </row>
@@ -7714,7 +7743,7 @@
       <c r="A26">
         <v>12</v>
       </c>
-      <c r="B26" s="44">
+      <c r="B26" s="43">
         <v>3</v>
       </c>
     </row>
@@ -7722,7 +7751,7 @@
       <c r="A27">
         <v>12.5</v>
       </c>
-      <c r="B27" s="44">
+      <c r="B27" s="43">
         <v>3.1</v>
       </c>
     </row>
@@ -7730,7 +7759,7 @@
       <c r="A28">
         <v>13</v>
       </c>
-      <c r="B28" s="44">
+      <c r="B28" s="43">
         <v>3.2</v>
       </c>
     </row>
@@ -7738,7 +7767,7 @@
       <c r="A29">
         <v>13.5</v>
       </c>
-      <c r="B29" s="44">
+      <c r="B29" s="43">
         <v>3.3</v>
       </c>
     </row>
@@ -7746,7 +7775,7 @@
       <c r="A30">
         <v>14</v>
       </c>
-      <c r="B30" s="44">
+      <c r="B30" s="43">
         <v>3.3</v>
       </c>
     </row>
@@ -7754,7 +7783,7 @@
       <c r="A31">
         <v>14.5</v>
       </c>
-      <c r="B31" s="44">
+      <c r="B31" s="43">
         <v>3.4</v>
       </c>
     </row>
@@ -7762,7 +7791,7 @@
       <c r="A32">
         <v>15</v>
       </c>
-      <c r="B32" s="44">
+      <c r="B32" s="43">
         <v>3.5</v>
       </c>
     </row>
@@ -7770,7 +7799,7 @@
       <c r="A33">
         <v>15.5</v>
       </c>
-      <c r="B33" s="44">
+      <c r="B33" s="43">
         <v>3.6</v>
       </c>
     </row>
@@ -7778,7 +7807,7 @@
       <c r="A34">
         <v>16</v>
       </c>
-      <c r="B34" s="44">
+      <c r="B34" s="43">
         <v>3.7</v>
       </c>
     </row>
@@ -7786,7 +7815,7 @@
       <c r="A35">
         <v>16.5</v>
       </c>
-      <c r="B35" s="44">
+      <c r="B35" s="43">
         <v>3.8</v>
       </c>
     </row>
@@ -7794,7 +7823,7 @@
       <c r="A36">
         <v>17</v>
       </c>
-      <c r="B36" s="44">
+      <c r="B36" s="43">
         <v>3.8</v>
       </c>
     </row>
@@ -7802,7 +7831,7 @@
       <c r="A37">
         <v>17.5</v>
       </c>
-      <c r="B37" s="44">
+      <c r="B37" s="43">
         <v>3.9</v>
       </c>
     </row>
@@ -7810,7 +7839,7 @@
       <c r="A38">
         <v>18</v>
       </c>
-      <c r="B38" s="44">
+      <c r="B38" s="43">
         <v>4</v>
       </c>
     </row>
@@ -7818,7 +7847,7 @@
       <c r="A39">
         <v>18.5</v>
       </c>
-      <c r="B39" s="44">
+      <c r="B39" s="43">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -7826,7 +7855,7 @@
       <c r="A40">
         <v>19</v>
       </c>
-      <c r="B40" s="44">
+      <c r="B40" s="43">
         <v>4.3</v>
       </c>
     </row>
@@ -7834,7 +7863,7 @@
       <c r="A41">
         <v>19.5</v>
       </c>
-      <c r="B41" s="44">
+      <c r="B41" s="43">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -7842,7 +7871,7 @@
       <c r="A42">
         <v>20</v>
       </c>
-      <c r="B42" s="44">
+      <c r="B42" s="43">
         <v>4.5</v>
       </c>
     </row>
@@ -7850,7 +7879,7 @@
       <c r="A43">
         <v>20.5</v>
       </c>
-      <c r="B43" s="44">
+      <c r="B43" s="43">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -7858,7 +7887,7 @@
       <c r="A44">
         <v>21</v>
       </c>
-      <c r="B44" s="44">
+      <c r="B44" s="43">
         <v>4.8</v>
       </c>
     </row>
@@ -7866,7 +7895,7 @@
       <c r="A45">
         <v>21.5</v>
       </c>
-      <c r="B45" s="44">
+      <c r="B45" s="43">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -7874,7 +7903,7 @@
       <c r="A46">
         <v>22</v>
       </c>
-      <c r="B46" s="44">
+      <c r="B46" s="43">
         <v>5</v>
       </c>
     </row>
@@ -7882,7 +7911,7 @@
       <c r="A47">
         <v>22.5</v>
       </c>
-      <c r="B47" s="44">
+      <c r="B47" s="43">
         <v>5.0999999999999996</v>
       </c>
     </row>
@@ -7890,7 +7919,7 @@
       <c r="A48">
         <v>23</v>
       </c>
-      <c r="B48" s="44">
+      <c r="B48" s="43">
         <v>5.3</v>
       </c>
     </row>
@@ -7898,7 +7927,7 @@
       <c r="A49">
         <v>23.5</v>
       </c>
-      <c r="B49" s="44">
+      <c r="B49" s="43">
         <v>5.4</v>
       </c>
     </row>
@@ -7906,7 +7935,7 @@
       <c r="A50">
         <v>24</v>
       </c>
-      <c r="B50" s="44">
+      <c r="B50" s="43">
         <v>5.5</v>
       </c>
     </row>
@@ -7914,7 +7943,7 @@
       <c r="A51">
         <v>24.5</v>
       </c>
-      <c r="B51" s="44">
+      <c r="B51" s="43">
         <v>5.6</v>
       </c>
     </row>
@@ -7922,7 +7951,7 @@
       <c r="A52">
         <v>25</v>
       </c>
-      <c r="B52" s="44">
+      <c r="B52" s="43">
         <v>5.8</v>
       </c>
     </row>
@@ -7930,7 +7959,7 @@
       <c r="A53">
         <v>25.5</v>
       </c>
-      <c r="B53" s="44">
+      <c r="B53" s="43">
         <v>5.9</v>
       </c>
     </row>
@@ -7938,7 +7967,7 @@
       <c r="A54">
         <v>26</v>
       </c>
-      <c r="B54" s="44">
+      <c r="B54" s="43">
         <v>6</v>
       </c>
     </row>
@@ -7946,7 +7975,7 @@
       <c r="A55">
         <v>26.5</v>
       </c>
-      <c r="B55" s="44">
+      <c r="B55" s="43">
         <v>6.1</v>
       </c>
     </row>
@@ -7954,7 +7983,7 @@
       <c r="A56">
         <v>27</v>
       </c>
-      <c r="B56" s="44">
+      <c r="B56" s="43">
         <v>6.3</v>
       </c>
     </row>
@@ -7962,7 +7991,7 @@
       <c r="A57">
         <v>27.5</v>
       </c>
-      <c r="B57" s="44">
+      <c r="B57" s="43">
         <v>6.4</v>
       </c>
     </row>
@@ -7970,7 +7999,7 @@
       <c r="A58">
         <v>28</v>
       </c>
-      <c r="B58" s="44">
+      <c r="B58" s="43">
         <v>6.5</v>
       </c>
     </row>
@@ -7978,7 +8007,7 @@
       <c r="A59">
         <v>28.5</v>
       </c>
-      <c r="B59" s="44">
+      <c r="B59" s="43">
         <v>6.6</v>
       </c>
     </row>
@@ -7986,7 +8015,7 @@
       <c r="A60">
         <v>29</v>
       </c>
-      <c r="B60" s="44">
+      <c r="B60" s="43">
         <v>6.8</v>
       </c>
     </row>
@@ -7994,7 +8023,7 @@
       <c r="A61">
         <v>29.5</v>
       </c>
-      <c r="B61" s="44">
+      <c r="B61" s="43">
         <v>6.9</v>
       </c>
     </row>
@@ -8002,7 +8031,7 @@
       <c r="A62">
         <v>30</v>
       </c>
-      <c r="B62" s="44">
+      <c r="B62" s="43">
         <v>7</v>
       </c>
     </row>
@@ -8964,7 +8993,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="76" t="s">
         <v>92</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -8975,7 +9004,7 @@
       <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="78"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
@@ -8985,7 +9014,7 @@
       <c r="D2" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="47" t="s">
         <v>10</v>
       </c>
     </row>
